--- a/日报历史数据/一亿送课活动日报看板-03-26.xlsx
+++ b/日报历史数据/一亿送课活动日报看板-03-26.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13040"/>
+    <workbookView windowWidth="24520" windowHeight="14200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="日报" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.当日已申请222家企业，</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>相比前天下降37.5%</t>
@@ -126,6 +133,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，活动主要资源位已经下线，给三人团让路。当日建立联系转化率有所提升。从累计数据上看，</t>
@@ -134,6 +142,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>建立联系转化率71.6%挺高的</t>
@@ -142,6 +151,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，但是</t>
@@ -150,6 +160,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>领取转化率41.8%不算理想</t>
@@ -158,6 +169,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，后续是否考虑转移重点，在领取上需要投入更多精力。
@@ -167,6 +179,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>听课转化率只有46.7%</t>
@@ -175,6 +188,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，也需要在提高一下。
@@ -184,6 +198,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>上海分社数据异常</t>
@@ -192,6 +207,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，需要宇萍跟进一下。</t>
@@ -200,6 +216,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>总部建立联系转化率20.6%也不算理想</t>
@@ -208,6 +225,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，可能昨天安排团报事情太多。</t>
@@ -216,6 +234,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>累计数据中，郑州和重庆建立联系转化率偏低，北京和广州在领取转化率上偏低</t>
@@ -224,6 +243,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。
@@ -234,6 +254,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>需要持续抓重点企业，重点跟进</t>
@@ -242,6 +263,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。
@@ -540,16 +562,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -677,15 +699,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,14 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -714,84 +729,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -807,8 +744,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,18 +850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -874,13 +901,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +943,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,25 +1039,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,109 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,23 +1124,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,30 +1184,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1172,176 +1204,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1390,7 +1417,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,7 +1426,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1435,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1417,7 +1444,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,16 +1465,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,32 +1489,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2652,6 +2661,7 @@
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>PV</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4959,7 +4969,7 @@
   <sheetPr/>
   <dimension ref="A1:AA238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="K94" sqref="I94 K94"/>
     </sheetView>
   </sheetViews>
@@ -5003,17 +5013,17 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5091,13 +5101,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="28" t="s">
@@ -5107,27 +5117,27 @@
         <v>14</v>
       </c>
       <c r="M3" s="28"/>
-      <c r="N3" s="52">
+      <c r="N3" s="46">
         <f>P3*R3*T3*V3</f>
         <v>51947</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46">
         <f>H4</f>
         <v>13016</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33">
         <f>R5/P3</f>
         <v>0.715580823601721</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47">
+      <c r="S3" s="33"/>
+      <c r="T3" s="33">
         <f>T5/R5</f>
         <v>0.417865578698733</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52">
+      <c r="U3" s="46"/>
+      <c r="V3" s="46">
         <f>V5/T5</f>
         <v>13.3471223021583</v>
       </c>
@@ -5138,44 +5148,44 @@
         <f>INDEX(总体数据!B:B,MATCH(A2,总体数据!A:A,0))</f>
         <v>222</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="27">
         <f>INDEX(总体数据!C:C,MATCH(A2,总体数据!A:A,0))</f>
         <v>78</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="27">
         <f>INDEX(总体数据!D:D,MATCH(A2,总体数据!A:A,0))</f>
         <v>35</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <f>INDEX(总体数据!E:E,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.3514</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <f>INDEX(总体数据!F:F,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4487</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="32">
+      <c r="G4" s="28"/>
+      <c r="H4" s="27">
         <f>INDEX(总体数据!G:G,MATCH(A2,总体数据!A:A,0))</f>
         <v>13016</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="27">
         <f>INDEX(总体数据!H:H,MATCH(A2,总体数据!A:A,0))</f>
         <v>9314</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="27">
         <f>INDEX(总体数据!I:I,MATCH(A2,总体数据!A:A,0))</f>
         <v>3892</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <f>INDEX(总体数据!J:J,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.7156</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <f>INDEX(总体数据!K:K,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4179</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
@@ -5198,45 +5208,45 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <f>INDEX(总体数据!B:B,MATCH(A5,总体数据!A:A,0))</f>
         <v>-0.374647887</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <f>INDEX(总体数据!C:C,MATCH(A5,总体数据!A:A,0))</f>
         <v>0.130434783</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f>INDEX(总体数据!D:D,MATCH(A5,总体数据!A:A,0))</f>
         <v>0.52173913</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46">
         <f>I4</f>
         <v>9314</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52">
+      <c r="S5" s="46"/>
+      <c r="T5" s="46">
         <f>J4</f>
         <v>3892</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52">
+      <c r="U5" s="46"/>
+      <c r="V5" s="46">
         <f>H7</f>
         <v>51947</v>
       </c>
@@ -5248,35 +5258,35 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="30"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="28"/>
@@ -5296,45 +5306,45 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="31">
         <f>INDEX(总体数据!N:N,MATCH(A2,总体数据!A:A,0))</f>
         <v>3712</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="27">
         <f>INDEX(总体数据!O:O,MATCH(A2,总体数据!A:A,0))</f>
         <v>2638</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <f>INDEX(总体数据!P:P,MATCH(A2,总体数据!A:A,0))</f>
         <v>1270</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f>INDEX(总体数据!Q:Q,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.7107</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <f>INDEX(总体数据!R:R,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.3421</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="32">
+      <c r="G7" s="28"/>
+      <c r="H7" s="27">
         <f>INDEX(总体数据!S:S,MATCH(A2,总体数据!A:A,0))</f>
         <v>51947</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="27">
         <f>INDEX(总体数据!T:T,MATCH(A2,总体数据!A:A,0))</f>
         <v>34658</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="27">
         <f>INDEX(总体数据!U:U,MATCH(A2,总体数据!A:A,0))</f>
         <v>24236</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f>INDEX(总体数据!V:V,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.6672</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <f>INDEX(总体数据!W:W,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4666</v>
       </c>
@@ -5350,18 +5360,18 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <f>INDEX(总体数据!N:N,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.232264736</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <f>INDEX(总体数据!O:O,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.195241001</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f>INDEX(总体数据!P:P,MATCH(A8,总体数据!A:A,0))</f>
         <v>-0.425339367</v>
       </c>
@@ -5385,7 +5395,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="28"/>
@@ -5411,7 +5421,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5435,7 +5445,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -5459,7 +5469,7 @@
       <c r="V11" s="28"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="28"/>
       <c r="C12" s="1"/>
       <c r="D12" s="28" t="s">
@@ -5474,18 +5484,18 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -5509,7 +5519,7 @@
       <c r="V13" s="28"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -5525,15 +5535,15 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -5557,7 +5567,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -5576,7 +5586,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -5595,7 +5605,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="37"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -5614,7 +5624,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -5633,7 +5643,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -5652,7 +5662,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -5671,7 +5681,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="37"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -5690,7 +5700,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -5709,7 +5719,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="37"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -5757,7 +5767,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="45"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="26" t="s">
         <v>28</v>
       </c>
@@ -5782,7 +5792,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -5801,19 +5811,19 @@
         <v>14</v>
       </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="1"/>
@@ -5823,7 +5833,7 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="39" t="str">
+      <c r="A28" s="37" t="str">
         <f>分社漏斗数据!B2</f>
         <v>总部</v>
       </c>
@@ -5839,11 +5849,11 @@
         <f>分社漏斗数据!E2</f>
         <v>8</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="42">
         <f>分社漏斗数据!F2</f>
         <v>0.2055</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="33">
         <f>分社漏斗数据!G2</f>
         <v>0.5333</v>
       </c>
@@ -5860,11 +5870,11 @@
         <f>分社漏斗数据!L2</f>
         <v>356</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="33">
         <f>分社漏斗数据!M2</f>
         <v>0.6189</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="33">
         <f>分社漏斗数据!N2</f>
         <v>0.5321</v>
       </c>
@@ -5875,7 +5885,7 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="39" t="str">
+      <c r="A29" s="37" t="str">
         <f>分社漏斗数据!B3</f>
         <v>北京</v>
       </c>
@@ -5891,11 +5901,11 @@
         <f>分社漏斗数据!E3</f>
         <v>3</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="33">
         <f>分社漏斗数据!F3</f>
         <v>0.375</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="33">
         <f>分社漏斗数据!G3</f>
         <v>0.25</v>
       </c>
@@ -5912,11 +5922,11 @@
         <f>分社漏斗数据!L3</f>
         <v>283</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="33">
         <f>分社漏斗数据!M3</f>
         <v>0.7278</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="42">
         <f>分社漏斗数据!N3</f>
         <v>0.1738</v>
       </c>
@@ -5927,7 +5937,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="39" t="str">
+      <c r="A30" s="37" t="str">
         <f>分社漏斗数据!B4</f>
         <v>上海</v>
       </c>
@@ -5943,11 +5953,11 @@
         <f>分社漏斗数据!E4</f>
         <v>0</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="42">
         <f>分社漏斗数据!F4</f>
         <v>0</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="42">
         <f>分社漏斗数据!G4</f>
         <v>0</v>
       </c>
@@ -5964,29 +5974,29 @@
         <f>分社漏斗数据!L4</f>
         <v>622</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="33">
         <f>分社漏斗数据!M4</f>
         <v>0.6676</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="33">
         <f>分社漏斗数据!N4</f>
         <v>0.826</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="39" t="str">
+      <c r="A31" s="37" t="str">
         <f>分社漏斗数据!B5</f>
         <v>郑州</v>
       </c>
@@ -6002,11 +6012,11 @@
         <f>分社漏斗数据!E5</f>
         <v>5</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="33">
         <f>分社漏斗数据!F5</f>
         <v>0.6429</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="33">
         <f>分社漏斗数据!G5</f>
         <v>0.5556</v>
       </c>
@@ -6023,24 +6033,24 @@
         <f>分社漏斗数据!L5</f>
         <v>245</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="42">
         <f>分社漏斗数据!M5</f>
         <v>0.4976</v>
       </c>
-      <c r="L31" s="47">
+      <c r="L31" s="33">
         <f>分社漏斗数据!N5</f>
         <v>0.7853</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="28" t="str">
@@ -6059,11 +6069,11 @@
         <f>分社漏斗数据!E6</f>
         <v>4</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="33">
         <f>分社漏斗数据!F6</f>
         <v>0.4444</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="33">
         <f>分社漏斗数据!G6</f>
         <v>1</v>
       </c>
@@ -6080,27 +6090,27 @@
         <f>分社漏斗数据!L6</f>
         <v>166</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="33">
         <f>分社漏斗数据!M6</f>
         <v>0.6005</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="33">
         <f>分社漏斗数据!N6</f>
         <v>0.7511</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="39" t="str">
+      <c r="A33" s="37" t="str">
         <f>分社漏斗数据!B7</f>
         <v>苏州</v>
       </c>
@@ -6116,11 +6126,11 @@
         <f>分社漏斗数据!E7</f>
         <v>1</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="42">
         <f>分社漏斗数据!F7</f>
         <v>0.2222</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="33">
         <f>分社漏斗数据!G7</f>
         <v>0.5</v>
       </c>
@@ -6137,24 +6147,24 @@
         <f>分社漏斗数据!L7</f>
         <v>214</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="33">
         <f>分社漏斗数据!M7</f>
         <v>0.802</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="33">
         <f>分社漏斗数据!N7</f>
         <v>0.6688</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="28" t="str">
@@ -6173,11 +6183,11 @@
         <f>分社漏斗数据!E8</f>
         <v>2</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="33">
         <f>分社漏斗数据!F8</f>
         <v>0.7778</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="33">
         <f>分社漏斗数据!G8</f>
         <v>0.2857</v>
       </c>
@@ -6194,24 +6204,24 @@
         <f>分社漏斗数据!L8</f>
         <v>490</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="33">
         <f>分社漏斗数据!M8</f>
         <v>0.9979</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="33">
         <f>分社漏斗数据!N8</f>
         <v>0.3419</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -6235,11 +6245,11 @@
         <f>分社漏斗数据!E9</f>
         <v>3</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="33">
         <f>分社漏斗数据!F9</f>
         <v>0.5556</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="33">
         <f>分社漏斗数据!G9</f>
         <v>0.6</v>
       </c>
@@ -6256,24 +6266,24 @@
         <f>分社漏斗数据!L9</f>
         <v>128</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="42">
         <f>分社漏斗数据!M9</f>
         <v>0.3372</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="33">
         <f>分社漏斗数据!N9</f>
         <v>0.7314</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -6297,11 +6307,11 @@
         <f>分社漏斗数据!E10</f>
         <v>3</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="33">
         <f>分社漏斗数据!F10</f>
         <v>0.8889</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="33">
         <f>分社漏斗数据!G10</f>
         <v>0.375</v>
       </c>
@@ -6318,24 +6328,24 @@
         <f>分社漏斗数据!L10</f>
         <v>257</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="33">
         <f>分社漏斗数据!M10</f>
         <v>0.9866</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="42">
         <f>分社漏斗数据!N10</f>
         <v>0.2059</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -6359,11 +6369,11 @@
         <f>分社漏斗数据!E11</f>
         <v>0</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="33">
         <f>分社漏斗数据!F11</f>
         <v>0</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="33">
         <f>分社漏斗数据!G11</f>
         <v>0</v>
       </c>
@@ -6380,24 +6390,24 @@
         <f>分社漏斗数据!L11</f>
         <v>1</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="33">
         <f>分社漏斗数据!M11</f>
         <v>0.0029</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="33">
         <f>分社漏斗数据!N11</f>
         <v>0.5</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -6421,11 +6431,11 @@
         <f>分社漏斗数据!E12</f>
         <v>1</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="33">
         <f>分社漏斗数据!F12</f>
         <v>0.1667</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="33">
         <f>分社漏斗数据!G12</f>
         <v>1</v>
       </c>
@@ -6442,24 +6452,24 @@
         <f>分社漏斗数据!L12</f>
         <v>117</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="33">
         <f>分社漏斗数据!M12</f>
         <v>0.6877</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="33">
         <f>分社漏斗数据!N12</f>
         <v>0.4875</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -6483,11 +6493,11 @@
         <f>分社漏斗数据!E13</f>
         <v>1</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="33">
         <f>分社漏斗数据!F13</f>
         <v>0.1667</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="33">
         <f>分社漏斗数据!G13</f>
         <v>1</v>
       </c>
@@ -6504,24 +6514,24 @@
         <f>分社漏斗数据!L13</f>
         <v>199</v>
       </c>
-      <c r="K39" s="47">
+      <c r="K39" s="33">
         <f>分社漏斗数据!M13</f>
         <v>0.5194</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="33">
         <f>分社漏斗数据!N13</f>
         <v>0.7835</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -6545,11 +6555,11 @@
         <f>分社漏斗数据!E14</f>
         <v>0</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="33">
         <f>分社漏斗数据!F14</f>
         <v>0.5</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="33">
         <f>分社漏斗数据!G14</f>
         <v>0</v>
       </c>
@@ -6566,24 +6576,24 @@
         <f>分社漏斗数据!L14</f>
         <v>46</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="33">
         <f>分社漏斗数据!M14</f>
         <v>0.6656</v>
       </c>
-      <c r="L40" s="47">
+      <c r="L40" s="33">
         <f>分社漏斗数据!N14</f>
         <v>0.1085</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6607,11 +6617,11 @@
         <f>分社漏斗数据!E15</f>
         <v>1</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="33">
         <f>分社漏斗数据!F15</f>
         <v>1</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="33">
         <f>分社漏斗数据!G15</f>
         <v>0.25</v>
       </c>
@@ -6628,24 +6638,24 @@
         <f>分社漏斗数据!L15</f>
         <v>185</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="33">
         <f>分社漏斗数据!M15</f>
         <v>0.9755</v>
       </c>
-      <c r="L41" s="47">
+      <c r="L41" s="33">
         <f>分社漏斗数据!N15</f>
         <v>0.3878</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6669,11 +6679,11 @@
         <f>分社漏斗数据!E16</f>
         <v>1</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="33">
         <f>分社漏斗数据!F16</f>
         <v>0.6667</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="33">
         <f>分社漏斗数据!G16</f>
         <v>0.5</v>
       </c>
@@ -6690,24 +6700,24 @@
         <f>分社漏斗数据!L16</f>
         <v>229</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="33">
         <f>分社漏斗数据!M16</f>
         <v>0.9347</v>
       </c>
-      <c r="L42" s="47">
+      <c r="L42" s="33">
         <f>分社漏斗数据!N16</f>
         <v>0.6397</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6731,11 +6741,11 @@
         <f>分社漏斗数据!E17</f>
         <v>1</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="33">
         <f>分社漏斗数据!F17</f>
         <v>0.6667</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="33">
         <f>分社漏斗数据!G17</f>
         <v>0.5</v>
       </c>
@@ -6752,24 +6762,24 @@
         <f>分社漏斗数据!L17</f>
         <v>210</v>
       </c>
-      <c r="K43" s="47">
+      <c r="K43" s="33">
         <f>分社漏斗数据!M17</f>
         <v>0.9155</v>
       </c>
-      <c r="L43" s="47">
+      <c r="L43" s="33">
         <f>分社漏斗数据!N17</f>
         <v>0.6462</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6793,11 +6803,11 @@
         <f>分社漏斗数据!E18</f>
         <v>0</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="33">
         <f>分社漏斗数据!F18</f>
         <v>0.3333</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="33">
         <f>分社漏斗数据!G18</f>
         <v>0</v>
       </c>
@@ -6814,24 +6824,24 @@
         <f>分社漏斗数据!L18</f>
         <v>1</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K44" s="33">
         <f>分社漏斗数据!M18</f>
         <v>0.1429</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L44" s="33">
         <f>分社漏斗数据!N18</f>
         <v>0.5</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="28" t="str">
@@ -6850,11 +6860,11 @@
         <f>分社漏斗数据!E19</f>
         <v>0</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="43">
         <f>分社漏斗数据!F19</f>
         <v>1</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="43">
         <f>分社漏斗数据!G19</f>
         <v>0</v>
       </c>
@@ -6871,24 +6881,24 @@
         <f>分社漏斗数据!L19</f>
         <v>135</v>
       </c>
-      <c r="K45" s="48">
+      <c r="K45" s="43">
         <f>分社漏斗数据!M19</f>
         <v>0.9411</v>
       </c>
-      <c r="L45" s="48">
+      <c r="L45" s="43">
         <f>分社漏斗数据!N19</f>
         <v>0.2916</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6912,11 +6922,11 @@
         <f>分社漏斗数据!E20</f>
         <v>0</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="43">
         <f>分社漏斗数据!F20</f>
         <v>0</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="43">
         <f>分社漏斗数据!G20</f>
         <v>0</v>
       </c>
@@ -6933,24 +6943,24 @@
         <f>分社漏斗数据!L20</f>
         <v>2</v>
       </c>
-      <c r="K46" s="48">
+      <c r="K46" s="43">
         <f>分社漏斗数据!M20</f>
         <v>0.1667</v>
       </c>
-      <c r="L46" s="48">
+      <c r="L46" s="43">
         <f>分社漏斗数据!N20</f>
         <v>1</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6974,11 +6984,11 @@
         <f>分社漏斗数据!E21</f>
         <v>0</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="43">
         <f>分社漏斗数据!F21</f>
         <v>0</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="43">
         <f>分社漏斗数据!G21</f>
         <v>0</v>
       </c>
@@ -6995,24 +7005,24 @@
         <f>分社漏斗数据!L21</f>
         <v>3</v>
       </c>
-      <c r="K47" s="48">
+      <c r="K47" s="43">
         <f>分社漏斗数据!M21</f>
         <v>0.2308</v>
       </c>
-      <c r="L47" s="48">
+      <c r="L47" s="43">
         <f>分社漏斗数据!N21</f>
         <v>1</v>
       </c>
       <c r="M47" s="1"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -7036,11 +7046,11 @@
         <f>分社漏斗数据!E22</f>
         <v>1</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="43">
         <f>分社漏斗数据!F22</f>
         <v>1</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="43">
         <f>分社漏斗数据!G22</f>
         <v>1</v>
       </c>
@@ -7057,24 +7067,24 @@
         <f>分社漏斗数据!L22</f>
         <v>3</v>
       </c>
-      <c r="K48" s="48">
+      <c r="K48" s="43">
         <f>分社漏斗数据!M22</f>
         <v>0.2727</v>
       </c>
-      <c r="L48" s="48">
+      <c r="L48" s="43">
         <f>分社漏斗数据!N22</f>
         <v>1</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -7098,11 +7108,11 @@
         <f>分社漏斗数据!E23</f>
         <v>0</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="43">
         <f>分社漏斗数据!F23</f>
         <v>0</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="43">
         <f>分社漏斗数据!G23</f>
         <v>0</v>
       </c>
@@ -7119,24 +7129,24 @@
         <f>分社漏斗数据!L23</f>
         <v>0</v>
       </c>
-      <c r="K49" s="48">
+      <c r="K49" s="43">
         <f>分社漏斗数据!M23</f>
         <v>0.1111</v>
       </c>
-      <c r="L49" s="48">
+      <c r="L49" s="43">
         <f>分社漏斗数据!N23</f>
         <v>0</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -7160,11 +7170,11 @@
         <f>分社漏斗数据!E24</f>
         <v>0</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="43">
         <f>分社漏斗数据!F24</f>
         <v>0</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="43">
         <f>分社漏斗数据!G24</f>
         <v>0</v>
       </c>
@@ -7181,24 +7191,24 @@
         <f>分社漏斗数据!L24</f>
         <v>0</v>
       </c>
-      <c r="K50" s="48">
+      <c r="K50" s="43">
         <f>分社漏斗数据!M24</f>
         <v>0.25</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="43">
         <f>分社漏斗数据!N24</f>
         <v>0</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -7213,41 +7223,41 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="27"/>
@@ -7258,7 +7268,7 @@
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="50"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="26" t="s">
         <v>33</v>
       </c>
@@ -7283,7 +7293,7 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="29" t="s">
@@ -7302,19 +7312,19 @@
         <v>23</v>
       </c>
       <c r="G54" s="27"/>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="41" t="s">
+      <c r="K54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="41" t="s">
+      <c r="L54" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="1"/>
@@ -7340,11 +7350,11 @@
         <f>分社学习数据!E2</f>
         <v>264</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="33">
         <f>分社学习数据!F2</f>
         <v>0.8331</v>
       </c>
-      <c r="F55" s="47">
+      <c r="F55" s="33">
         <f>分社学习数据!G2</f>
         <v>0.3081</v>
       </c>
@@ -7361,11 +7371,11 @@
         <f>分社学习数据!L2</f>
         <v>3749</v>
       </c>
-      <c r="K55" s="47">
+      <c r="K55" s="33">
         <f>分社学习数据!M2</f>
         <v>0.6961</v>
       </c>
-      <c r="L55" s="47">
+      <c r="L55" s="33">
         <f>分社学习数据!N2</f>
         <v>0.5072</v>
       </c>
@@ -7392,11 +7402,11 @@
         <f>分社学习数据!E3</f>
         <v>212</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="33">
         <f>分社学习数据!F3</f>
         <v>0.7849</v>
       </c>
-      <c r="F56" s="47">
+      <c r="F56" s="33">
         <f>分社学习数据!G3</f>
         <v>0.302</v>
       </c>
@@ -7413,11 +7423,11 @@
         <f>分社学习数据!L3</f>
         <v>8169</v>
       </c>
-      <c r="K56" s="47">
+      <c r="K56" s="33">
         <f>分社学习数据!M3</f>
         <v>0.7082</v>
       </c>
-      <c r="L56" s="47">
+      <c r="L56" s="33">
         <f>分社学习数据!N3</f>
         <v>0.4057</v>
       </c>
@@ -7444,11 +7454,11 @@
         <f>分社学习数据!E4</f>
         <v>145</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="33">
         <f>分社学习数据!F4</f>
         <v>0.5385</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="33">
         <f>分社学习数据!G4</f>
         <v>0.3486</v>
       </c>
@@ -7465,11 +7475,11 @@
         <f>分社学习数据!L4</f>
         <v>1776</v>
       </c>
-      <c r="K57" s="47">
+      <c r="K57" s="33">
         <f>分社学习数据!M4</f>
         <v>0.6157</v>
       </c>
-      <c r="L57" s="47">
+      <c r="L57" s="33">
         <f>分社学习数据!N4</f>
         <v>0.41</v>
       </c>
@@ -7496,11 +7506,11 @@
         <f>分社学习数据!E5</f>
         <v>147</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="33">
         <f>分社学习数据!F5</f>
         <v>0.6618</v>
       </c>
-      <c r="F58" s="47">
+      <c r="F58" s="33">
         <f>分社学习数据!G5</f>
         <v>0.4249</v>
       </c>
@@ -7517,11 +7527,11 @@
         <f>分社学习数据!L5</f>
         <v>3619</v>
       </c>
-      <c r="K58" s="47">
+      <c r="K58" s="33">
         <f>分社学习数据!M5</f>
         <v>0.6652</v>
       </c>
-      <c r="L58" s="46">
+      <c r="L58" s="42">
         <f>分社学习数据!N5</f>
         <v>0.6182</v>
       </c>
@@ -7548,11 +7558,11 @@
         <f>分社学习数据!E6</f>
         <v>91</v>
       </c>
-      <c r="E59" s="47">
+      <c r="E59" s="33">
         <f>分社学习数据!F6</f>
         <v>0.6148</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F59" s="33">
         <f>分社学习数据!G6</f>
         <v>0.3216</v>
       </c>
@@ -7569,11 +7579,11 @@
         <f>分社学习数据!L6</f>
         <v>971</v>
       </c>
-      <c r="K59" s="47">
+      <c r="K59" s="33">
         <f>分社学习数据!M6</f>
         <v>0.6791</v>
       </c>
-      <c r="L59" s="47">
+      <c r="L59" s="33">
         <f>分社学习数据!N6</f>
         <v>0.4321</v>
       </c>
@@ -7600,11 +7610,11 @@
         <f>分社学习数据!E7</f>
         <v>81</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="33">
         <f>分社学习数据!F7</f>
         <v>0.8063</v>
       </c>
-      <c r="F60" s="47">
+      <c r="F60" s="33">
         <f>分社学习数据!G7</f>
         <v>0.3202</v>
       </c>
@@ -7621,11 +7631,11 @@
         <f>分社学习数据!L7</f>
         <v>600</v>
       </c>
-      <c r="K60" s="47">
+      <c r="K60" s="33">
         <f>分社学习数据!M7</f>
         <v>0.6238</v>
       </c>
-      <c r="L60" s="47">
+      <c r="L60" s="33">
         <f>分社学习数据!N7</f>
         <v>0.4702</v>
       </c>
@@ -7652,11 +7662,11 @@
         <f>分社学习数据!E8</f>
         <v>57</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E61" s="33">
         <f>分社学习数据!F8</f>
         <v>0.608</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="33">
         <f>分社学习数据!G8</f>
         <v>0.3239</v>
       </c>
@@ -7673,11 +7683,11 @@
         <f>分社学习数据!L8</f>
         <v>929</v>
       </c>
-      <c r="K61" s="47">
+      <c r="K61" s="33">
         <f>分社学习数据!M8</f>
         <v>0.6327</v>
       </c>
-      <c r="L61" s="47">
+      <c r="L61" s="33">
         <f>分社学习数据!N8</f>
         <v>0.394</v>
       </c>
@@ -7714,11 +7724,11 @@
         <f>分社学习数据!E9</f>
         <v>63</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="33">
         <f>分社学习数据!F9</f>
         <v>0.6667</v>
       </c>
-      <c r="F62" s="47">
+      <c r="F62" s="33">
         <f>分社学习数据!G9</f>
         <v>0.3818</v>
       </c>
@@ -7735,11 +7745,11 @@
         <f>分社学习数据!L9</f>
         <v>527</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="33">
         <f>分社学习数据!M9</f>
         <v>0.525</v>
       </c>
-      <c r="L62" s="47">
+      <c r="L62" s="33">
         <f>分社学习数据!N9</f>
         <v>0.4705</v>
       </c>
@@ -7776,11 +7786,11 @@
         <f>分社学习数据!E10</f>
         <v>46</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="33">
         <f>分社学习数据!F10</f>
         <v>0.5776</v>
       </c>
-      <c r="F63" s="47">
+      <c r="F63" s="33">
         <f>分社学习数据!G10</f>
         <v>0.3966</v>
       </c>
@@ -7797,11 +7807,11 @@
         <f>分社学习数据!L10</f>
         <v>456</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="33">
         <f>分社学习数据!M10</f>
         <v>0.5211</v>
       </c>
-      <c r="L63" s="47">
+      <c r="L63" s="33">
         <f>分社学习数据!N10</f>
         <v>0.5352</v>
       </c>
@@ -7838,11 +7848,11 @@
         <f>分社学习数据!E11</f>
         <v>54</v>
       </c>
-      <c r="E64" s="47">
+      <c r="E64" s="33">
         <f>分社学习数据!F11</f>
         <v>0.6372</v>
       </c>
-      <c r="F64" s="47">
+      <c r="F64" s="33">
         <f>分社学习数据!G11</f>
         <v>0.4779</v>
       </c>
@@ -7859,11 +7869,11 @@
         <f>分社学习数据!L11</f>
         <v>866</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="33">
         <f>分社学习数据!M11</f>
         <v>0.6594</v>
       </c>
-      <c r="L64" s="46">
+      <c r="L64" s="42">
         <f>分社学习数据!N11</f>
         <v>0.6275</v>
       </c>
@@ -7900,11 +7910,11 @@
         <f>分社学习数据!E12</f>
         <v>31</v>
       </c>
-      <c r="E65" s="47">
+      <c r="E65" s="33">
         <f>分社学习数据!F12</f>
         <v>0.7333</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="33">
         <f>分社学习数据!G12</f>
         <v>0.4133</v>
       </c>
@@ -7921,11 +7931,11 @@
         <f>分社学习数据!L12</f>
         <v>373</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="33">
         <f>分社学习数据!M12</f>
         <v>0.5773</v>
       </c>
-      <c r="L65" s="47">
+      <c r="L65" s="33">
         <f>分社学习数据!N12</f>
         <v>0.4368</v>
       </c>
@@ -7962,11 +7972,11 @@
         <f>分社学习数据!E13</f>
         <v>28</v>
       </c>
-      <c r="E66" s="47">
+      <c r="E66" s="33">
         <f>分社学习数据!F13</f>
         <v>0.6232</v>
       </c>
-      <c r="F66" s="47">
+      <c r="F66" s="33">
         <f>分社学习数据!G13</f>
         <v>0.4058</v>
       </c>
@@ -7983,11 +7993,11 @@
         <f>分社学习数据!L13</f>
         <v>533</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K66" s="33">
         <f>分社学习数据!M13</f>
         <v>0.5738</v>
       </c>
-      <c r="L66" s="47">
+      <c r="L66" s="33">
         <f>分社学习数据!N13</f>
         <v>0.4599</v>
       </c>
@@ -8024,11 +8034,11 @@
         <f>分社学习数据!E14</f>
         <v>16</v>
       </c>
-      <c r="E67" s="47">
+      <c r="E67" s="33">
         <f>分社学习数据!F14</f>
         <v>0.6047</v>
       </c>
-      <c r="F67" s="47">
+      <c r="F67" s="33">
         <f>分社学习数据!G14</f>
         <v>0.3721</v>
       </c>
@@ -8045,11 +8055,11 @@
         <f>分社学习数据!L14</f>
         <v>747</v>
       </c>
-      <c r="K67" s="47">
+      <c r="K67" s="33">
         <f>分社学习数据!M14</f>
         <v>0.6873</v>
       </c>
-      <c r="L67" s="47">
+      <c r="L67" s="33">
         <f>分社学习数据!N14</f>
         <v>0.5711</v>
       </c>
@@ -8086,11 +8096,11 @@
         <f>分社学习数据!E15</f>
         <v>14</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="33">
         <f>分社学习数据!F15</f>
         <v>0.6857</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="33">
         <f>分社学习数据!G15</f>
         <v>0.4</v>
       </c>
@@ -8107,11 +8117,11 @@
         <f>分社学习数据!L15</f>
         <v>434</v>
       </c>
-      <c r="K68" s="47">
+      <c r="K68" s="33">
         <f>分社学习数据!M15</f>
         <v>0.5496</v>
       </c>
-      <c r="L68" s="47">
+      <c r="L68" s="33">
         <f>分社学习数据!N15</f>
         <v>0.5385</v>
       </c>
@@ -8148,11 +8158,11 @@
         <f>分社学习数据!E16</f>
         <v>11</v>
       </c>
-      <c r="E69" s="47">
+      <c r="E69" s="33">
         <f>分社学习数据!F16</f>
         <v>0.6061</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="33">
         <f>分社学习数据!G16</f>
         <v>0.3333</v>
       </c>
@@ -8169,11 +8179,11 @@
         <f>分社学习数据!L16</f>
         <v>239</v>
       </c>
-      <c r="K69" s="47">
+      <c r="K69" s="33">
         <f>分社学习数据!M16</f>
         <v>0.5177</v>
       </c>
-      <c r="L69" s="47">
+      <c r="L69" s="33">
         <f>分社学习数据!N16</f>
         <v>0.565</v>
       </c>
@@ -8210,11 +8220,11 @@
         <f>分社学习数据!E17</f>
         <v>7</v>
       </c>
-      <c r="E70" s="47">
+      <c r="E70" s="33">
         <f>分社学习数据!F17</f>
         <v>0.6</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="33">
         <f>分社学习数据!G17</f>
         <v>0.4667</v>
       </c>
@@ -8231,11 +8241,11 @@
         <f>分社学习数据!L17</f>
         <v>209</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="33">
         <f>分社学习数据!M17</f>
         <v>0.4587</v>
       </c>
-      <c r="L70" s="47">
+      <c r="L70" s="33">
         <f>分社学习数据!N17</f>
         <v>0.5573</v>
       </c>
@@ -8272,11 +8282,11 @@
         <f>分社学习数据!E18</f>
         <v>0</v>
       </c>
-      <c r="E71" s="47">
+      <c r="E71" s="33">
         <f>分社学习数据!F18</f>
         <v>0.8</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="33">
         <f>分社学习数据!G18</f>
         <v>0</v>
       </c>
@@ -8293,11 +8303,11 @@
         <f>分社学习数据!L18</f>
         <v>19</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K71" s="33">
         <f>分社学习数据!M18</f>
         <v>0.7955</v>
       </c>
-      <c r="L71" s="47">
+      <c r="L71" s="33">
         <f>分社学习数据!N18</f>
         <v>0.4318</v>
       </c>
@@ -8324,11 +8334,11 @@
         <f>分社学习数据!E19</f>
         <v>2</v>
       </c>
-      <c r="E72" s="47">
+      <c r="E72" s="33">
         <f>分社学习数据!F19</f>
         <v>0.5</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="33">
         <f>分社学习数据!G19</f>
         <v>0.5</v>
       </c>
@@ -8345,11 +8355,11 @@
         <f>分社学习数据!L19</f>
         <v>3</v>
       </c>
-      <c r="K72" s="47">
+      <c r="K72" s="33">
         <f>分社学习数据!M19</f>
         <v>0.5</v>
       </c>
-      <c r="L72" s="47">
+      <c r="L72" s="33">
         <f>分社学习数据!N19</f>
         <v>0.75</v>
       </c>
@@ -8376,11 +8386,11 @@
         <f>分社学习数据!E20</f>
         <v>0</v>
       </c>
-      <c r="E73" s="47">
+      <c r="E73" s="33">
         <f>分社学习数据!F20</f>
         <v>0</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="33">
         <f>分社学习数据!G20</f>
         <v>0</v>
       </c>
@@ -8397,11 +8407,11 @@
         <f>分社学习数据!L20</f>
         <v>1</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K73" s="33">
         <f>分社学习数据!M20</f>
         <v>0</v>
       </c>
-      <c r="L73" s="47">
+      <c r="L73" s="33">
         <f>分社学习数据!N20</f>
         <v>1</v>
       </c>
@@ -8428,11 +8438,11 @@
         <f>分社学习数据!E21</f>
         <v>0</v>
       </c>
-      <c r="E74" s="47">
+      <c r="E74" s="33">
         <f>分社学习数据!F21</f>
         <v>0</v>
       </c>
-      <c r="F74" s="47">
+      <c r="F74" s="33">
         <f>分社学习数据!G21</f>
         <v>0</v>
       </c>
@@ -8449,11 +8459,11 @@
         <f>分社学习数据!L21</f>
         <v>1</v>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="33">
         <f>分社学习数据!M21</f>
         <v>0</v>
       </c>
-      <c r="L74" s="47">
+      <c r="L74" s="33">
         <f>分社学习数据!N21</f>
         <v>1</v>
       </c>
@@ -8490,11 +8500,11 @@
         <f>分社学习数据!E22</f>
         <v>0</v>
       </c>
-      <c r="E75" s="47">
+      <c r="E75" s="33">
         <f>分社学习数据!F22</f>
         <v>0</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="33">
         <f>分社学习数据!G22</f>
         <v>0</v>
       </c>
@@ -8511,11 +8521,11 @@
         <f>分社学习数据!L22</f>
         <v>0</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="33">
         <f>分社学习数据!M22</f>
         <v>0</v>
       </c>
-      <c r="L75" s="47">
+      <c r="L75" s="33">
         <f>分社学习数据!N22</f>
         <v>0</v>
       </c>
@@ -8552,11 +8562,11 @@
         <f>分社学习数据!E23</f>
         <v>0</v>
       </c>
-      <c r="E76" s="47">
+      <c r="E76" s="33">
         <f>分社学习数据!F23</f>
         <v>0</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="33">
         <f>分社学习数据!G23</f>
         <v>0</v>
       </c>
@@ -8573,11 +8583,11 @@
         <f>分社学习数据!L23</f>
         <v>14</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="33">
         <f>分社学习数据!M23</f>
         <v>0.2222</v>
       </c>
-      <c r="L76" s="47">
+      <c r="L76" s="33">
         <f>分社学习数据!N23</f>
         <v>0.7778</v>
       </c>
@@ -8614,11 +8624,11 @@
         <f>分社学习数据!E24</f>
         <v>0</v>
       </c>
-      <c r="E77" s="47">
+      <c r="E77" s="33">
         <f>分社学习数据!F24</f>
         <v>0</v>
       </c>
-      <c r="F77" s="47">
+      <c r="F77" s="33">
         <f>分社学习数据!G24</f>
         <v>0</v>
       </c>
@@ -8635,11 +8645,11 @@
         <f>分社学习数据!L24</f>
         <v>0</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="33">
         <f>分社学习数据!M24</f>
         <v>0</v>
       </c>
-      <c r="L77" s="47">
+      <c r="L77" s="33">
         <f>分社学习数据!N24</f>
         <v>0</v>
       </c>
@@ -13696,8 +13706,8 @@
   <sheetPr/>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6"/>
